--- a/docs/data/quiz/e4v2/ads.xlsx
+++ b/docs/data/quiz/e4v2/ads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\e4v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{094978AE-442F-48F7-BACB-2979D26C5DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364BDE2C-56B8-4D90-84AB-BC5401BFAD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4C1C0C52-9597-4F0A-AFB1-BFAD6CA1F973}"/>
   </bookViews>
@@ -35,19 +35,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Radio Ads</t>
+    <t>radio_ads</t>
   </si>
   <si>
-    <t>Revenue</t>
+    <t>revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,12 +85,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,21 +413,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86613D6C-E4CC-4950-A3CF-E464D53B1DC8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -433,7 +433,7 @@
       <c r="A2" s="1">
         <v>21</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>8350</v>
       </c>
     </row>
@@ -441,7 +441,7 @@
       <c r="A3" s="1">
         <v>180</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>22755</v>
       </c>
     </row>
@@ -449,7 +449,7 @@
       <c r="A4" s="1">
         <v>50</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>13455</v>
       </c>
     </row>
@@ -457,7 +457,7 @@
       <c r="A5" s="1">
         <v>195</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>21100</v>
       </c>
     </row>
@@ -465,7 +465,7 @@
       <c r="A6" s="1">
         <v>96</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>15000</v>
       </c>
     </row>
@@ -473,7 +473,7 @@
       <c r="A7" s="1">
         <v>44</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>12500</v>
       </c>
     </row>
@@ -481,7 +481,7 @@
       <c r="A8" s="1">
         <v>171</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>20700</v>
       </c>
     </row>
@@ -489,7 +489,7 @@
       <c r="A9" s="1">
         <v>135</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>19722</v>
       </c>
     </row>
@@ -497,7 +497,7 @@
       <c r="A10" s="1">
         <v>120</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>16115</v>
       </c>
     </row>
@@ -505,7 +505,7 @@
       <c r="A11" s="1">
         <v>75</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>13100</v>
       </c>
     </row>
@@ -513,7 +513,7 @@
       <c r="A12" s="1">
         <v>106</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>15670</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
       <c r="A13" s="1">
         <v>198</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>25300</v>
       </c>
     </row>
